--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128512.7148891727</v>
+        <v>166401.045157695</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>492028.9342484454</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8392798.851453384</v>
+        <v>8418051.37852723</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>39.99246191624539</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>35.83645153538785</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>324.4603501203399</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,10 +1102,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>82.85734077805913</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>430.4313829879808</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8504650439436</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.1013595417837</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>90.68764087732693</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537892</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7957673084556</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>172.6623007436915</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426774</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>173.7950029088928</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>79.86552601431268</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>129.372720328348</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>71.84692347866329</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225796</v>
+        <v>35.34780583513587</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>163.9521757218097</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074773</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.05677735225796</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>266.1592746401475</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>24.62703520776718</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225808</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>103.3456594571965</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>28.46824604904426</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791331984</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>54.18430635300767</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800596</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3904,19 +3904,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>24.40875262509115</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170498</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>52.79556056591011</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,7 +4189,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>136.0564930766988</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>578.9817666056701</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>544.8796978294974</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>504.4832716514718</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>474.748930850171</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>450.9219052997828</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304666</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797682</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756277</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.14192482635</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1833.524974760177</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1832.709924211614</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1413.567460790925</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1005.281337090578</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339742</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064427</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940201</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>686.0220024315213</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>649.8235665371901</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>649.8235665371901</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>480.0655627879274</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>303.3585087496837</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213222</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2188.066959793161</v>
       </c>
       <c r="U4" t="n">
-        <v>1024.341879988165</v>
+        <v>1909.633959046266</v>
       </c>
       <c r="V4" t="n">
-        <v>1024.341879988165</v>
+        <v>1622.678450916696</v>
       </c>
       <c r="W4" t="n">
-        <v>1024.341879988165</v>
+        <v>1350.652046502988</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.341879988165</v>
+        <v>1105.2602918364</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>877.8406211505085</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.077691008219</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>763.4960167454872</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.829956469585</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1154.39695572269</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>867.4414475931208</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>595.4150431794122</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>350.0232885128247</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715258</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953531</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.2846042752947</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743897</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743897</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743897</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743897</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1628.646808234785</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1369.424505551802</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1006.807555485628</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>601.9521008966612</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>182.809637475972</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160295</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3366467865964</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>637.7749352698213</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>471.8969424713439</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>302.1389387220812</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4318846838374</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838374</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.109125272774</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.161826571869</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2442.685715783162</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925637</v>
+        <v>2164.252715036267</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.993095271771</v>
+        <v>1877.297206906698</v>
       </c>
       <c r="W10" t="n">
-        <v>1474.966690858063</v>
+        <v>1605.270802492989</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.574936191475</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.155265505583</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
@@ -5048,19 +5048,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5078,13 +5078,13 @@
         <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5124,7 +5124,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>627.0314784854783</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>457.2734747362155</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>280.5664206979717</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2286.856950165738</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245547</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
         <v>1649.322926419992</v>
@@ -5270,10 +5270,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5288,40 +5288,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245815</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247378</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>917.3761843184092</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>744.8144728016341</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583914</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2677.839094654636</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2399.406093907741</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168568</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526436</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>944.829865684731</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939388</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,40 +5525,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4764.22618407731</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774512</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.4711828007314</v>
+        <v>806.2298140987276</v>
       </c>
       <c r="C19" t="n">
-        <v>792.9094712839563</v>
+        <v>633.6681025819526</v>
       </c>
       <c r="D19" t="n">
-        <v>627.0314784854791</v>
+        <v>467.7901097834753</v>
       </c>
       <c r="E19" t="n">
-        <v>457.2734747362163</v>
+        <v>298.0321060342125</v>
       </c>
       <c r="F19" t="n">
-        <v>280.5664206979725</v>
+        <v>298.0321060342125</v>
       </c>
       <c r="G19" t="n">
-        <v>114.9751457238002</v>
+        <v>132.4408310600402</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285906</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872198</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.70947220561</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.289801519719</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847289</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939366</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>4121.145983344108</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>4121.145983344108</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.450585778171</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6181,7 +6181,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6406,19 +6406,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223545</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841107</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099384</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.14643235498</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>884.584720838205</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>718.7067280397278</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>548.948724290465</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>372.2416702522212</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>206.6503952780488</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1476.384721759859</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1248.965051073967</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
         <v>444.5591692831957</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771611</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.807784200425</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436412</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477105</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7406,55 +7406,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1036.216302815309</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C43" t="n">
-        <v>863.6545912985334</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D43" t="n">
-        <v>697.7765985000561</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856332</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.872751300484</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.454592220188</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1228.034921534296</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>4729.704604581733</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477112</v>
       </c>
       <c r="C46" t="n">
-        <v>896.2081456238832</v>
+        <v>780.1951658309362</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324588</v>
       </c>
       <c r="E46" t="n">
-        <v>673.121292818146</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V46" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803745</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,25 +8058,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350418</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558195</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>527.9769957459462</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>216.346812327467</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0111327346214</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>268.0111327346225</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566189</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>110.0349065174846</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>268.0111327346207</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>10.96843159933807</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142713</v>
+        <v>103.1553467313934</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>267.5985112554902</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>267.5985112554914</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.14686572942388</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358762</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>35.15749310933271</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>113.8761173587624</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>111.4236523045824</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>139.592177662727</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>721520.1022389359</v>
+        <v>729295.5143602857</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>721520.1022389359</v>
+        <v>731497.3038850698</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722970.3460644297</v>
+        <v>731497.3038850698</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708759.8754410978</v>
+        <v>708759.8754410975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708759.8754410978</v>
+        <v>708759.8754410975</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708759.8754410978</v>
+        <v>708759.8754410974</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708759.8754410977</v>
+        <v>708759.8754410975</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738670.3520973983</v>
+        <v>738670.3520973981</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738670.3520973984</v>
+        <v>738670.3520973983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241266.2939506839</v>
+        <v>241266.2939506838</v>
       </c>
       <c r="C2" t="n">
-        <v>241266.2939506839</v>
+        <v>241266.2939506838</v>
       </c>
       <c r="D2" t="n">
         <v>241266.2939506838</v>
@@ -26323,13 +26323,13 @@
         <v>227485.7540872544</v>
       </c>
       <c r="F2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="G2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="H2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="I2" t="n">
         <v>237085.9128618085</v>
@@ -26338,7 +26338,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="L2" t="n">
         <v>237085.9128618085</v>
@@ -26347,7 +26347,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="O2" t="n">
         <v>237085.9128618085</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390697</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.0085678454</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742625</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966616</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908699</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.49019908699</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962269</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962273</v>
       </c>
       <c r="P4" t="n">
         <v>54561.82510962277</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
         <v>73519.34227764752</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154046.4744974128</v>
+        <v>-193487.4812856232</v>
       </c>
       <c r="C6" t="n">
-        <v>-11855.17383770289</v>
+        <v>1703.030769229968</v>
       </c>
       <c r="D6" t="n">
-        <v>-18345.66906645003</v>
+        <v>19043.57514313694</v>
       </c>
       <c r="E6" t="n">
-        <v>-122185.3721415075</v>
+        <v>-60197.71215439135</v>
       </c>
       <c r="F6" t="n">
-        <v>101613.9216105199</v>
+        <v>101537.363055723</v>
       </c>
       <c r="G6" t="n">
-        <v>101613.9216105199</v>
+        <v>101537.3630557229</v>
       </c>
       <c r="H6" t="n">
-        <v>101613.9216105199</v>
+        <v>101537.3630557229</v>
       </c>
       <c r="I6" t="n">
-        <v>86441.13351355374</v>
+        <v>86417.90917417104</v>
       </c>
       <c r="J6" t="n">
-        <v>-6208.616198596923</v>
+        <v>-55825.20467860241</v>
       </c>
       <c r="K6" t="n">
-        <v>104805.8491463932</v>
+        <v>90968.61623916525</v>
       </c>
       <c r="L6" t="n">
-        <v>95858.2380578834</v>
+        <v>104782.6248070106</v>
       </c>
       <c r="M6" t="n">
-        <v>-81985.13746407445</v>
+        <v>-30207.31980599283</v>
       </c>
       <c r="N6" t="n">
-        <v>104805.8491463932</v>
+        <v>104782.6248070107</v>
       </c>
       <c r="O6" t="n">
-        <v>104805.8491463932</v>
+        <v>104782.6248070106</v>
       </c>
       <c r="P6" t="n">
-        <v>104805.8491463932</v>
+        <v>104782.6248070106</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>391.5582250610545</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>134.9996428662195</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.12840517454447</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>160.5633111792702</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>3.329665100430077</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>10.0160898117482</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>18.31929241554556</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>193.3983121709469</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.156056678083569e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803745</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,28 +34775,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350418</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558195</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>527.9769957459462</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>216.346812327467</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
